--- a/datafiles/cbn_MFB_rpt_12345m052087.xlsx
+++ b/datafiles/cbn_MFB_rpt_12345m052087.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saliu\Documents\FOR SAMUEL\NEPTUNE PROJECTS\EFASS-BACK\EfassBack\Efass-BackEnd\datafiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="9855" tabRatio="937" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="3570" tabRatio="937" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="300" sheetId="1" r:id="rId1"/>
@@ -46,6 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'300'!$A$1:$F$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <oleSize ref="A22:H30"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -55,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="449">
   <si>
     <t>Micro-Finance Bank Code</t>
   </si>
@@ -2470,6 +2466,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>hhghg</t>
+  </si>
+  <si>
+    <t>ffdf</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -7069,7 +7077,7 @@
       <c r="C35" s="58"/>
       <c r="D35" s="48">
         <f>'711'!D20</f>
-        <v>7280</v>
+        <v>7946</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="37"/>
@@ -7162,7 +7170,7 @@
       <c r="D42" s="36"/>
       <c r="E42" s="40">
         <f>SUM(D35:D41)</f>
-        <v>13280</v>
+        <v>13946</v>
       </c>
       <c r="F42" s="37"/>
     </row>
@@ -7223,7 +7231,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="41">
         <f>E42-E45</f>
-        <v>13147.2</v>
+        <v>13813.2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7434,7 +7442,7 @@
       <c r="E61" s="64"/>
       <c r="F61" s="65">
         <f>F60+F50+F46+F33+F27+F25+F17</f>
-        <v>35871.199999999997</v>
+        <v>36537.199999999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8231,7 +8239,7 @@
   </sheetPr>
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -8469,9 +8477,9 @@
         <v>232</v>
       </c>
       <c r="C20" s="675"/>
-      <c r="D20" s="365">
+      <c r="D20" s="365" t="str">
         <f>IF(D19+D18+D12='300'!E42,D19+D18+D12,"Check Rules!!!")</f>
-        <v>13280</v>
+        <v>Check Rules!!!</v>
       </c>
       <c r="E20" s="157"/>
     </row>
@@ -8496,12 +8504,12 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
         <f>IF(D20="Check Rules!!!",D20,"…………………………………………………..")</f>
-        <v>…………………………………………………..</v>
+        <v>Check Rules!!!</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="650" t="str">
         <f>A23</f>
-        <v>…………………………………………………..</v>
+        <v>Check Rules!!!</v>
       </c>
       <c r="D23" s="650"/>
       <c r="E23" s="158"/>
@@ -8558,8 +8566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW195"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="84" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,7 +9041,9 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="391"/>
-      <c r="B20" s="392"/>
+      <c r="B20" s="392" t="s">
+        <v>448</v>
+      </c>
       <c r="C20" s="393"/>
       <c r="D20" s="394"/>
       <c r="E20" s="237"/>
@@ -9056,7 +9066,9 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="401"/>
-      <c r="B21" s="402"/>
+      <c r="B21" s="402">
+        <v>55</v>
+      </c>
       <c r="C21" s="403"/>
       <c r="D21" s="404"/>
       <c r="E21" s="404"/>
@@ -13120,8 +13132,8 @@
   </sheetPr>
   <dimension ref="A1:IW30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D24"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13266,8 +13278,12 @@
         <v>283</v>
       </c>
       <c r="B12" s="683"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="416"/>
+      <c r="C12" s="415">
+        <v>123</v>
+      </c>
+      <c r="D12" s="416">
+        <v>121</v>
+      </c>
       <c r="E12" s="417" t="e">
         <f t="shared" ref="E12:E24" si="0">D12/$D$25</f>
         <v>#VALUE!</v>
@@ -13424,7 +13440,7 @@
       <c r="B25" s="686"/>
       <c r="C25" s="426">
         <f>SUM(C12:C24)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D25" s="427" t="str">
         <f>IF(SUM(D12:D24)='300'!E42,SUM(D12:D24),"Check Rules!!!")</f>
@@ -13526,7 +13542,7 @@
   </sheetPr>
   <dimension ref="A1:IW44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -13760,9 +13776,9 @@
         <f>SUM(C15:H15)</f>
         <v>7280</v>
       </c>
-      <c r="J15" s="449">
+      <c r="J15" s="449" t="e">
         <f>I15/$I$33*100</f>
-        <v>54.819277108433738</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -13818,9 +13834,9 @@
         <f>SUM(C18:H18)</f>
         <v>6000</v>
       </c>
-      <c r="J18" s="449">
+      <c r="J18" s="449" t="e">
         <f>I18/$I$33*100</f>
-        <v>45.180722891566269</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -13872,9 +13888,9 @@
         <f>SUM(C21:H21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="449">
+      <c r="J21" s="449" t="e">
         <f>I21/$I$33*100</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -13926,9 +13942,9 @@
         <f>SUM(C24:H24)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="449">
+      <c r="J24" s="449" t="e">
         <f>I24/$I$33*100</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -13980,9 +13996,9 @@
         <f>SUM(C27:H27)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="449">
+      <c r="J27" s="449" t="e">
         <f>I27/$I$33*100</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -14034,9 +14050,9 @@
         <f>SUM(C30:H30)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="452">
+      <c r="J30" s="452" t="e">
         <f>I30/$I$33*100</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -14120,13 +14136,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="457">
+      <c r="I33" s="457" t="str">
         <f>IF(I15+I18+I21+I24+I27+I30='300'!E42,I15+I18+I21+I24+I27+I30,"Check Rules!!!")</f>
-        <v>13280</v>
-      </c>
-      <c r="J33" s="458">
+        <v>Check Rules!!!</v>
+      </c>
+      <c r="J33" s="458" t="e">
         <f>J15+J18+J21+J24+J27+J30</f>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="440" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14156,14 +14172,14 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
         <f>IF(I33="Check Rules!!!",I33,"……………………………………………………..")</f>
-        <v>……………………………………………………..</v>
+        <v>Check Rules!!!</v>
       </c>
       <c r="B36" s="437"/>
       <c r="E36" s="462"/>
       <c r="F36" s="462"/>
       <c r="G36" s="694" t="str">
         <f>A36</f>
-        <v>……………………………………………………..</v>
+        <v>Check Rules!!!</v>
       </c>
       <c r="H36" s="694"/>
       <c r="I36" s="462"/>
@@ -14323,7 +14339,7 @@
   </sheetPr>
   <dimension ref="A1:IW23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -15102,7 +15118,7 @@
   </sheetPr>
   <dimension ref="A1:IW52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
@@ -15552,7 +15568,7 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -24423,8 +24439,8 @@
   </sheetPr>
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24586,7 +24602,7 @@
       </c>
       <c r="E12" s="311">
         <f t="shared" ref="E12:E19" si="0">D12/$D$20</f>
-        <v>1</v>
+        <v>0.91618424364460105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -24596,11 +24612,15 @@
       <c r="B13" s="313" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="314">
+        <v>90</v>
+      </c>
+      <c r="D13" s="73">
+        <v>666</v>
+      </c>
       <c r="E13" s="315">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3815756355398938E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -24694,11 +24714,11 @@
       </c>
       <c r="C20" s="324">
         <f>SUM(C12:C19)</f>
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="D20" s="325">
         <f>SUM(D12:D19)</f>
-        <v>7280</v>
+        <v>7946</v>
       </c>
       <c r="E20" s="326">
         <f>SUM(E12:E19)</f>
@@ -24763,8 +24783,8 @@
   </sheetPr>
   <dimension ref="A1:IW44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25005,21 +25025,35 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="235"/>
-      <c r="B18" s="338"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="341"/>
+      <c r="B18" s="338" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" s="339">
+        <v>44116</v>
+      </c>
+      <c r="D18" s="340">
+        <v>4</v>
+      </c>
+      <c r="E18" s="341">
+        <v>544</v>
+      </c>
       <c r="F18" s="341"/>
-      <c r="G18" s="342"/>
+      <c r="G18" s="342" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="240"/>
       <c r="B19" s="343"/>
       <c r="C19" s="344"/>
-      <c r="D19" s="345"/>
+      <c r="D19" s="345" t="s">
+        <v>446</v>
+      </c>
       <c r="E19" s="346"/>
       <c r="F19" s="346"/>
-      <c r="G19" s="347"/>
+      <c r="G19" s="347">
+        <v>555</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="240"/>

--- a/datafiles/cbn_MFB_rpt_12345m052087.xlsx
+++ b/datafiles/cbn_MFB_rpt_12345m052087.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saliu\Documents\FOR SAMUEL\NEPTUNE PROJECTS\EFASS-BACK\EfassBack\Efass-BackEnd\Efass-BackEnd\datafiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="3570" tabRatio="937" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="3570" tabRatio="937" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="300" sheetId="1" r:id="rId1"/>
@@ -41,7 +46,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'300'!$A$1:$F$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <oleSize ref="A22:H30"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="448">
   <si>
     <t>Micro-Finance Bank Code</t>
   </si>
@@ -645,9 +649,6 @@
   </si>
   <si>
     <t>Financial Year End</t>
-  </si>
-  <si>
-    <t>31st December</t>
   </si>
   <si>
     <t>Number of Branches in Operation:</t>
@@ -8282,7 +8283,7 @@
       </c>
       <c r="B3" s="106"/>
       <c r="C3" s="111" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8291,7 +8292,7 @@
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="290" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="301"/>
       <c r="E4" s="301"/>
@@ -8354,12 +8355,12 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="303" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="670"/>
       <c r="C11" s="670"/>
       <c r="D11" s="356" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E11" s="99"/>
     </row>
@@ -8368,7 +8369,7 @@
         <v>10762</v>
       </c>
       <c r="B12" s="671" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="671"/>
       <c r="D12" s="238">
@@ -8381,7 +8382,7 @@
         <v>10763</v>
       </c>
       <c r="B13" s="672" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="672"/>
       <c r="D13" s="359"/>
@@ -8392,7 +8393,7 @@
         <v>10764</v>
       </c>
       <c r="B14" s="673" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="673"/>
       <c r="D14" s="360">
@@ -8406,7 +8407,7 @@
         <v>10765</v>
       </c>
       <c r="B15" s="673" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="673"/>
       <c r="D15" s="360">
@@ -8420,7 +8421,7 @@
         <v>10766</v>
       </c>
       <c r="B16" s="673" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="673"/>
       <c r="D16" s="360">
@@ -8434,7 +8435,7 @@
         <v>10767</v>
       </c>
       <c r="B17" s="673" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="673"/>
       <c r="D17" s="360">
@@ -8448,7 +8449,7 @@
         <v>10768</v>
       </c>
       <c r="B18" s="673" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="673"/>
       <c r="D18" s="361">
@@ -8460,7 +8461,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="362"/>
       <c r="B19" s="674" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="674"/>
       <c r="D19" s="363">
@@ -8474,7 +8475,7 @@
         <v>10769</v>
       </c>
       <c r="B20" s="675" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="675"/>
       <c r="D20" s="365" t="str">
@@ -8566,7 +8567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW195"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -8638,7 +8639,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="376" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="373"/>
       <c r="E3" s="373"/>
@@ -8658,7 +8659,7 @@
       </c>
       <c r="B4" s="98"/>
       <c r="C4" s="376" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="377"/>
       <c r="E4" s="377"/>
@@ -8860,7 +8861,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="380" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="381"/>
       <c r="C15" s="381"/>
@@ -8950,43 +8951,43 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="676" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="677" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="677" t="s">
+      <c r="C17" s="677" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="677" t="s">
+      <c r="D17" s="677" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="677" t="s">
+      <c r="E17" s="677" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="677" t="s">
+      <c r="F17" s="677" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="677" t="s">
+      <c r="G17" s="677" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="677" t="s">
+      <c r="H17" s="677" t="s">
         <v>264</v>
       </c>
-      <c r="H17" s="677" t="s">
+      <c r="I17" s="677" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="677" t="s">
+      <c r="J17" s="681" t="s">
         <v>266</v>
-      </c>
-      <c r="J17" s="681" t="s">
-        <v>267</v>
       </c>
       <c r="K17" s="681"/>
       <c r="L17" s="681"/>
       <c r="M17" s="681"/>
       <c r="N17" s="678" t="s">
+        <v>267</v>
+      </c>
+      <c r="O17" s="679" t="s">
         <v>268</v>
-      </c>
-      <c r="O17" s="679" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -9000,16 +9001,16 @@
       <c r="H18" s="677"/>
       <c r="I18" s="677"/>
       <c r="J18" s="390" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="390" t="s">
         <v>270</v>
       </c>
-      <c r="K18" s="390" t="s">
+      <c r="L18" s="390" t="s">
         <v>271</v>
       </c>
-      <c r="L18" s="390" t="s">
+      <c r="M18" s="390" t="s">
         <v>272</v>
-      </c>
-      <c r="M18" s="390" t="s">
-        <v>273</v>
       </c>
       <c r="N18" s="678"/>
       <c r="O18" s="679"/>
@@ -9025,16 +9026,16 @@
       <c r="H19" s="677"/>
       <c r="I19" s="677"/>
       <c r="J19" s="389" t="s">
+        <v>273</v>
+      </c>
+      <c r="K19" s="389" t="s">
         <v>274</v>
       </c>
-      <c r="K19" s="389" t="s">
+      <c r="L19" s="389" t="s">
         <v>275</v>
       </c>
-      <c r="L19" s="389" t="s">
+      <c r="M19" s="389" t="s">
         <v>276</v>
-      </c>
-      <c r="M19" s="389" t="s">
-        <v>277</v>
       </c>
       <c r="N19" s="678"/>
       <c r="O19" s="679"/>
@@ -9042,7 +9043,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="391"/>
       <c r="B20" s="392" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="393"/>
       <c r="D20" s="394"/>
@@ -13177,7 +13178,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="410"/>
       <c r="D3" s="410"/>
@@ -13188,7 +13189,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="290" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="292"/>
       <c r="D4" s="292"/>
@@ -13260,22 +13261,22 @@
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="682" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="682"/>
       <c r="C11" s="411" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="412" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="412" t="s">
-        <v>282</v>
-      </c>
       <c r="E11" s="413" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="683" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="683"/>
       <c r="C12" s="415">
@@ -13291,7 +13292,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="684" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="684"/>
       <c r="C13" s="419"/>
@@ -13303,7 +13304,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="684" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="684"/>
       <c r="C14" s="419"/>
@@ -13315,7 +13316,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="684" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" s="684"/>
       <c r="C15" s="419"/>
@@ -13327,7 +13328,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="684" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" s="684"/>
       <c r="C16" s="419"/>
@@ -13339,7 +13340,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="684" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" s="684"/>
       <c r="C17" s="419"/>
@@ -13351,7 +13352,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="684" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" s="684"/>
       <c r="C18" s="419"/>
@@ -13363,7 +13364,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="684" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="684"/>
       <c r="C19" s="419"/>
@@ -13375,7 +13376,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="684" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="684"/>
       <c r="C20" s="419"/>
@@ -13387,7 +13388,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="684" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="684"/>
       <c r="C21" s="419"/>
@@ -13399,7 +13400,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="684" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B22" s="684"/>
       <c r="C22" s="419"/>
@@ -13411,7 +13412,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="684" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B23" s="684"/>
       <c r="C23" s="419"/>
@@ -13423,7 +13424,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="685" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" s="685"/>
       <c r="C24" s="423"/>
@@ -13435,7 +13436,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="686" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="686"/>
       <c r="C25" s="426">
@@ -13587,7 +13588,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="434" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="435"/>
       <c r="D3" s="435"/>
@@ -13597,7 +13598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="433" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="289"/>
       <c r="D4" s="289"/>
@@ -13683,37 +13684,37 @@
     </row>
     <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="688" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" s="688"/>
       <c r="C12" s="441" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="389" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="389" t="s">
+      <c r="E12" s="389" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="389" t="s">
+      <c r="F12" s="389" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="389" t="s">
+      <c r="G12" s="389" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="389" t="s">
+      <c r="H12" s="389" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="389" t="s">
+      <c r="I12" s="442" t="s">
         <v>304</v>
       </c>
-      <c r="I12" s="442" t="s">
-        <v>305</v>
-      </c>
       <c r="J12" s="443" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="689" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="689"/>
       <c r="C13" s="444"/>
@@ -13727,7 +13728,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="690"/>
       <c r="C14" s="447"/>
@@ -13755,7 +13756,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="690" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" s="690"/>
       <c r="C15" s="447"/>
@@ -13783,7 +13784,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="691" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16" s="691"/>
       <c r="C16" s="447"/>
@@ -13797,7 +13798,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="690"/>
       <c r="C17" s="447"/>
@@ -13819,7 +13820,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="690"/>
       <c r="C18" s="447"/>
@@ -13841,7 +13842,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="691" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="691"/>
       <c r="C19" s="447"/>
@@ -13855,7 +13856,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="690"/>
       <c r="C20" s="447"/>
@@ -13875,7 +13876,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="690"/>
       <c r="C21" s="447"/>
@@ -13895,7 +13896,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="691" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B22" s="691"/>
       <c r="C22" s="447"/>
@@ -13909,7 +13910,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="690"/>
       <c r="C23" s="447"/>
@@ -13929,7 +13930,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="690"/>
       <c r="C24" s="447"/>
@@ -13949,7 +13950,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="691" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="691"/>
       <c r="C25" s="447"/>
@@ -13963,7 +13964,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="690"/>
       <c r="C26" s="447"/>
@@ -13983,7 +13984,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="690"/>
       <c r="C27" s="447"/>
@@ -14003,7 +14004,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="691" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" s="691"/>
       <c r="C28" s="447"/>
@@ -14017,7 +14018,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" s="690"/>
       <c r="C29" s="447"/>
@@ -14037,7 +14038,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="692" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="692"/>
       <c r="C30" s="450"/>
@@ -14057,7 +14058,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="689" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="689"/>
       <c r="C31" s="444"/>
@@ -14071,7 +14072,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" s="690"/>
       <c r="C32" s="455">
@@ -14109,7 +14110,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="692" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="692"/>
       <c r="C33" s="457">
@@ -14391,7 +14392,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
@@ -14405,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="696" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="696"/>
       <c r="D4" s="696"/>
@@ -14501,50 +14502,50 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="697" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="697"/>
       <c r="C11" s="469" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="469" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="469" t="s">
+      <c r="E11" s="469" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="469" t="s">
+      <c r="F11" s="469" t="s">
         <v>320</v>
       </c>
-      <c r="F11" s="469" t="s">
+      <c r="G11" s="469" t="s">
         <v>321</v>
       </c>
-      <c r="G11" s="469" t="s">
+      <c r="H11" s="470" t="s">
         <v>322</v>
-      </c>
-      <c r="H11" s="470" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="698" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="698"/>
       <c r="C12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H12" s="471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14561,7 +14562,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="699" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="699"/>
       <c r="C14" s="472"/>
@@ -14573,7 +14574,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="699" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="699"/>
       <c r="C15" s="472">
@@ -14609,7 +14610,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="700" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" s="700"/>
       <c r="C17" s="474"/>
@@ -14755,7 +14756,7 @@
       </c>
       <c r="B3" s="106"/>
       <c r="C3" s="290" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D3" s="410"/>
     </row>
@@ -14765,7 +14766,7 @@
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="290" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="292"/>
     </row>
@@ -14835,16 +14836,16 @@
         <v>122</v>
       </c>
       <c r="B11" s="479" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="480" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="480" t="s">
+      <c r="D11" s="480" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="480" t="s">
+      <c r="E11" s="481" t="s">
         <v>333</v>
-      </c>
-      <c r="E11" s="481" t="s">
-        <v>334</v>
       </c>
       <c r="F11" s="90"/>
     </row>
@@ -15017,7 +15018,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="491"/>
       <c r="B22" s="492" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="493">
         <f>SUM(C12:C21)</f>
@@ -15043,7 +15044,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="89"/>
       <c r="C24" s="90"/>
@@ -15061,12 +15062,12 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="225"/>
       <c r="D26" s="650" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E26" s="650"/>
       <c r="F26" s="90"/>
@@ -15158,7 +15159,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -15167,7 +15168,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -15228,14 +15229,14 @@
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="498" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="702" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="702"/>
       <c r="D11" s="499" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -15451,7 +15452,7 @@
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="503"/>
       <c r="B47" s="703" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="703"/>
       <c r="D47" s="495">
@@ -15474,11 +15475,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" s="90"/>
       <c r="C50" s="650" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D50" s="650"/>
     </row>
@@ -15612,7 +15613,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="505" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
@@ -15622,7 +15623,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="506" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="507"/>
       <c r="D4" s="507"/>
@@ -15708,37 +15709,37 @@
     </row>
     <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="688" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="688"/>
       <c r="C12" s="441" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="389" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="389" t="s">
+      <c r="E12" s="389" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="389" t="s">
+      <c r="F12" s="389" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="389" t="s">
+      <c r="G12" s="389" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="389" t="s">
+      <c r="H12" s="389" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="389" t="s">
+      <c r="I12" s="442" t="s">
         <v>304</v>
       </c>
-      <c r="I12" s="442" t="s">
-        <v>305</v>
-      </c>
       <c r="J12" s="443" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="689" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="689"/>
       <c r="C13" s="444"/>
@@ -15752,7 +15753,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="690"/>
       <c r="C14" s="447">
@@ -15774,7 +15775,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="690" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" s="690"/>
       <c r="C15" s="447">
@@ -15796,7 +15797,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="691" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" s="691"/>
       <c r="C16" s="447"/>
@@ -15810,7 +15811,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="690"/>
       <c r="C17" s="447">
@@ -15832,7 +15833,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="690"/>
       <c r="C18" s="447">
@@ -15854,7 +15855,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="691" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" s="691"/>
       <c r="C19" s="447"/>
@@ -15868,7 +15869,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="690"/>
       <c r="C20" s="447">
@@ -15890,7 +15891,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="690"/>
       <c r="C21" s="447">
@@ -15912,7 +15913,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="691" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" s="691"/>
       <c r="C22" s="447"/>
@@ -15926,7 +15927,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="690"/>
       <c r="C23" s="447"/>
@@ -15948,7 +15949,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="690"/>
       <c r="C24" s="447"/>
@@ -15970,7 +15971,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="691" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="691"/>
       <c r="C25" s="447"/>
@@ -15984,7 +15985,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="690"/>
       <c r="C26" s="447"/>
@@ -16004,7 +16005,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="690" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="690"/>
       <c r="C27" s="447"/>
@@ -16024,7 +16025,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="691" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B28" s="691"/>
       <c r="C28" s="447"/>
@@ -16038,7 +16039,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" s="690"/>
       <c r="C29" s="447"/>
@@ -16058,7 +16059,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="692" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="692"/>
       <c r="C30" s="450"/>
@@ -16078,7 +16079,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="689" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="689"/>
       <c r="C31" s="444"/>
@@ -16092,7 +16093,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="690" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" s="690"/>
       <c r="C32" s="508">
@@ -16130,7 +16131,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="692" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="692"/>
       <c r="C33" s="509">
@@ -16347,7 +16348,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="514" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="104"/>
@@ -16357,7 +16358,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="515" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D4" s="516"/>
       <c r="E4" s="513"/>
@@ -16433,20 +16434,20 @@
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="518" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="708" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C12" s="708"/>
       <c r="D12" s="519" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="519" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="519" t="s">
+      <c r="F12" s="520" t="s">
         <v>356</v>
-      </c>
-      <c r="F12" s="520" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16454,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="709" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C13" s="709"/>
       <c r="D13" s="444"/>
@@ -16465,7 +16466,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="523"/>
       <c r="B14" s="710" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="710"/>
       <c r="D14" s="447">
@@ -16483,7 +16484,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="523"/>
       <c r="B15" s="710" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="710"/>
       <c r="D15" s="447">
@@ -16503,7 +16504,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="711" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C16" s="711"/>
       <c r="D16" s="447"/>
@@ -16514,7 +16515,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="523"/>
       <c r="B17" s="710" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="710"/>
       <c r="D17" s="447">
@@ -16532,7 +16533,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="523"/>
       <c r="B18" s="710" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="710"/>
       <c r="D18" s="447">
@@ -16552,7 +16553,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="711" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C19" s="711"/>
       <c r="D19" s="447"/>
@@ -16563,7 +16564,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="523"/>
       <c r="B20" s="710" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C20" s="710"/>
       <c r="D20" s="447">
@@ -16579,7 +16580,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="523"/>
       <c r="B21" s="710" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="710"/>
       <c r="D21" s="447">
@@ -16597,7 +16598,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="711" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22" s="711"/>
       <c r="D22" s="447"/>
@@ -16608,7 +16609,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="523"/>
       <c r="B23" s="710" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="710"/>
       <c r="D23" s="447"/>
@@ -16622,7 +16623,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="526"/>
       <c r="B24" s="712" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="712"/>
       <c r="D24" s="527"/>
@@ -16636,7 +16637,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="521"/>
       <c r="B25" s="713" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="713"/>
       <c r="D25" s="529"/>
@@ -16647,7 +16648,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="523"/>
       <c r="B26" s="710" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" s="710"/>
       <c r="D26" s="508">
@@ -16667,7 +16668,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="532"/>
       <c r="B27" s="714" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27" s="714"/>
       <c r="D27" s="509">
@@ -16850,7 +16851,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="535"/>
       <c r="E3" s="535"/>
@@ -16864,7 +16865,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="291"/>
       <c r="E4" s="291"/>
@@ -16969,26 +16970,26 @@
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="538" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" s="670" t="s">
         <v>364</v>
-      </c>
-      <c r="B12" s="670" t="s">
-        <v>365</v>
       </c>
       <c r="C12" s="670"/>
       <c r="D12" s="336" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="304" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="336" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="304" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="336" t="s">
+      <c r="G12" s="336" t="s">
         <v>367</v>
       </c>
-      <c r="G12" s="336" t="s">
+      <c r="H12" s="539" t="s">
         <v>368</v>
-      </c>
-      <c r="H12" s="539" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17213,7 +17214,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="554" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="555"/>
       <c r="C35" s="555"/>
@@ -18022,7 +18023,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="293" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D3" s="293"/>
       <c r="E3" s="293"/>
@@ -18035,7 +18036,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="558" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D4" s="559"/>
       <c r="E4" s="559"/>
@@ -18123,23 +18124,23 @@
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="561" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="670" t="s">
         <v>372</v>
-      </c>
-      <c r="B11" s="670" t="s">
-        <v>373</v>
       </c>
       <c r="C11" s="670"/>
       <c r="D11" s="336" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E11" s="304" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="336" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="539" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="539" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18234,7 +18235,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="554" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="555"/>
       <c r="C22" s="555"/>
@@ -18275,14 +18276,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="650"/>
       <c r="D26" s="650"/>
       <c r="E26" s="225"/>
       <c r="F26" s="650" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" s="650"/>
     </row>
@@ -18395,7 +18396,7 @@
       </c>
       <c r="B3" s="566"/>
       <c r="C3" s="111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" s="567"/>
       <c r="E3" s="568"/>
@@ -18408,7 +18409,7 @@
       </c>
       <c r="B4" s="566"/>
       <c r="C4" s="290" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="569"/>
       <c r="E4" s="570"/>
@@ -18496,23 +18497,23 @@
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="538" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="670" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" s="670"/>
       <c r="D11" s="336" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E11" s="304" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="336" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="539" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="539" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18607,7 +18608,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="554" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="555"/>
       <c r="C22" s="555"/>
@@ -18645,7 +18646,7 @@
       <c r="B25" s="90"/>
       <c r="C25" s="225"/>
       <c r="D25" s="93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F25" s="225"/>
       <c r="G25" s="225"/>
@@ -18771,7 +18772,7 @@
       </c>
       <c r="B3" s="106"/>
       <c r="C3" s="111" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
@@ -18785,7 +18786,7 @@
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="718" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="718"/>
       <c r="E4" s="718"/>
@@ -18878,11 +18879,11 @@
         <v>122</v>
       </c>
       <c r="B11" s="719" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="719"/>
       <c r="D11" s="413" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18927,7 +18928,7 @@
         <v>20525</v>
       </c>
       <c r="B15" s="722" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" s="722"/>
       <c r="D15" s="501"/>
@@ -18937,7 +18938,7 @@
         <v>20530</v>
       </c>
       <c r="B16" s="722" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" s="722"/>
       <c r="D16" s="579">
@@ -18972,7 +18973,7 @@
         <v>20545</v>
       </c>
       <c r="B19" s="722" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="722"/>
       <c r="D19" s="501"/>
@@ -18982,7 +18983,7 @@
         <v>20550</v>
       </c>
       <c r="B20" s="722" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="722"/>
       <c r="D20" s="501"/>
@@ -19047,7 +19048,7 @@
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="584"/>
       <c r="B26" s="719" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="719"/>
       <c r="D26" s="585">
@@ -19069,7 +19070,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="476" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
@@ -19084,11 +19085,11 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="650" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="650"/>
       <c r="E31" s="587"/>
@@ -19216,7 +19217,7 @@
       </c>
       <c r="B3" s="566"/>
       <c r="C3" s="111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" s="568"/>
       <c r="E3" s="568"/>
@@ -19230,7 +19231,7 @@
       </c>
       <c r="B4" s="566"/>
       <c r="C4" s="290" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="570"/>
       <c r="E4" s="570"/>
@@ -19335,26 +19336,26 @@
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="538" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="670" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="670"/>
       <c r="D12" s="336" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="336" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="336" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="304" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="539" t="s">
         <v>391</v>
-      </c>
-      <c r="E12" s="336" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="336" t="s">
-        <v>367</v>
-      </c>
-      <c r="G12" s="304" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="539" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -19459,7 +19460,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="593" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="594"/>
       <c r="C23" s="497"/>
@@ -19507,13 +19508,13 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="90"/>
       <c r="D27" s="225"/>
       <c r="E27" s="225"/>
       <c r="F27" s="650" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G27" s="650"/>
       <c r="H27" s="650"/>
@@ -19637,7 +19638,7 @@
       </c>
       <c r="B3" s="566"/>
       <c r="C3" s="567" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" s="568"/>
       <c r="E3" s="568"/>
@@ -19650,7 +19651,7 @@
       </c>
       <c r="B4" s="566"/>
       <c r="C4" s="598" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="570"/>
       <c r="E4" s="570"/>
@@ -19747,23 +19748,23 @@
     </row>
     <row r="12" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="538" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="670" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="670"/>
       <c r="D12" s="336" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="336" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="304" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="304" t="s">
-        <v>240</v>
-      </c>
       <c r="G12" s="539" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -19858,7 +19859,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="554" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="555"/>
       <c r="C23" s="555"/>
@@ -19902,12 +19903,12 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="90"/>
       <c r="D27" s="225"/>
       <c r="E27" s="225" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" s="603"/>
       <c r="G27" s="603"/>
@@ -20013,7 +20014,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D3" s="289"/>
       <c r="E3" s="289"/>
@@ -20024,7 +20025,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D4" s="292"/>
       <c r="E4" s="292"/>
@@ -20104,26 +20105,26 @@
     </row>
     <row r="12" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="604" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="725" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="725"/>
       <c r="D12" s="605" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="605" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="605" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="605" t="s">
+      <c r="G12" s="605" t="s">
         <v>401</v>
       </c>
-      <c r="G12" s="605" t="s">
+      <c r="H12" s="606" t="s">
         <v>402</v>
-      </c>
-      <c r="H12" s="606" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -20219,7 +20220,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="554"/>
       <c r="B22" s="726" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="726"/>
       <c r="D22" s="726"/>
@@ -20270,13 +20271,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
       <c r="E26" s="650" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F26" s="650"/>
       <c r="G26" s="90"/>
@@ -20375,7 +20376,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="108" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" s="107"/>
     </row>
@@ -20385,7 +20386,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" s="107"/>
     </row>
@@ -20458,14 +20459,14 @@
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="271" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="657" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="657"/>
       <c r="D12" s="273" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -20537,7 +20538,7 @@
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="503"/>
       <c r="B24" s="703" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="703"/>
       <c r="D24" s="495">
@@ -20566,11 +20567,11 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="650" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" s="650"/>
     </row>
@@ -20677,7 +20678,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D3" s="107"/>
     </row>
@@ -20687,7 +20688,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D4" s="107"/>
     </row>
@@ -20754,14 +20755,14 @@
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="498" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="702" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C11" s="702"/>
       <c r="D11" s="499" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -20833,7 +20834,7 @@
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="503"/>
       <c r="B23" s="728" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="728"/>
       <c r="D23" s="495">
@@ -20975,7 +20976,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="618" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="619"/>
       <c r="D3" s="289"/>
@@ -20985,7 +20986,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="651" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" s="651"/>
       <c r="D4" s="651"/>
@@ -21063,34 +21064,34 @@
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="729" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="729"/>
       <c r="C12" s="622" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="622" t="s">
         <v>415</v>
       </c>
-      <c r="D12" s="622" t="s">
+      <c r="E12" s="622" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="622" t="s">
+      <c r="F12" s="622" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="622" t="s">
+      <c r="G12" s="622" t="s">
         <v>418</v>
       </c>
-      <c r="G12" s="622" t="s">
+      <c r="H12" s="622" t="s">
         <v>419</v>
       </c>
-      <c r="H12" s="622" t="s">
+      <c r="I12" s="623" t="s">
         <v>420</v>
-      </c>
-      <c r="I12" s="623" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="730" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B13" s="730"/>
       <c r="C13" s="624"/>
@@ -21114,7 +21115,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="731" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B14" s="731"/>
       <c r="C14" s="628"/>
@@ -21130,7 +21131,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="732" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B15" s="732"/>
       <c r="C15" s="628"/>
@@ -21148,7 +21149,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="732" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B16" s="732"/>
       <c r="C16" s="634">
@@ -21182,7 +21183,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="732" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B17" s="732"/>
       <c r="C17" s="628">
@@ -21200,7 +21201,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="633" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B18" s="636"/>
       <c r="C18" s="629"/>
@@ -21220,7 +21221,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="732" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="732"/>
       <c r="C19" s="634">
@@ -21254,7 +21255,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="732" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B20" s="732"/>
       <c r="C20" s="628">
@@ -21272,7 +21273,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="732" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B21" s="732"/>
       <c r="C21" s="634">
@@ -21306,7 +21307,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="733" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B22" s="733"/>
       <c r="C22" s="637">
@@ -21353,7 +21354,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B24" s="641"/>
       <c r="C24" s="641"/>
@@ -21366,7 +21367,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="641"/>
       <c r="E25" s="641"/>
@@ -21377,7 +21378,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" s="641"/>
       <c r="D26" s="641"/>
@@ -21389,7 +21390,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27" s="641"/>
       <c r="D27" s="641"/>
@@ -21401,7 +21402,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28" s="641"/>
       <c r="D28" s="641"/>
@@ -21413,7 +21414,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B29" s="641"/>
       <c r="D29" s="641"/>
@@ -21555,7 +21556,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="735" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C3" s="735"/>
       <c r="D3" s="735"/>
@@ -21640,15 +21641,15 @@
       <c r="C11" s="736"/>
       <c r="D11" s="736"/>
       <c r="E11" s="644" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="645" t="s">
         <v>439</v>
-      </c>
-      <c r="F11" s="645" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="737" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="737"/>
       <c r="C12" s="737"/>
@@ -21698,7 +21699,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="651" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B17" s="651"/>
       <c r="C17" s="651"/>
@@ -21742,12 +21743,12 @@
     <row r="38" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="226" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -21783,8 +21784,8 @@
   </sheetPr>
   <dimension ref="A1:IW45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21960,19 +21961,19 @@
       </c>
       <c r="C14" s="174">
         <f>C15+C16</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D14" s="174">
         <f>D15+D16</f>
-        <v>12340</v>
+        <v>0</v>
       </c>
       <c r="E14" s="174">
         <f>E15+E16</f>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F14" s="175">
         <f>F15+F16</f>
-        <v>13280</v>
+        <v>0</v>
       </c>
       <c r="G14" s="90"/>
     </row>
@@ -21983,18 +21984,10 @@
       <c r="B15" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="177">
-        <v>33</v>
-      </c>
-      <c r="D15" s="177">
-        <v>8920</v>
-      </c>
-      <c r="E15" s="177">
-        <v>48</v>
-      </c>
-      <c r="F15" s="178">
-        <v>9860</v>
-      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -22004,18 +21997,10 @@
       <c r="B16" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="177">
-        <v>9</v>
-      </c>
-      <c r="D16" s="177">
-        <v>3420</v>
-      </c>
-      <c r="E16" s="177">
-        <v>10</v>
-      </c>
-      <c r="F16" s="178">
-        <v>3420</v>
-      </c>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="90"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22078,19 +22063,19 @@
       </c>
       <c r="C20" s="174">
         <f>C21+C22</f>
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="D20" s="174">
         <f>D21+D22</f>
-        <v>10690</v>
+        <v>0</v>
       </c>
       <c r="E20" s="174">
         <f>E21+E22</f>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F20" s="175">
         <f>F21+F22</f>
-        <v>26432</v>
+        <v>0</v>
       </c>
       <c r="G20" s="90"/>
     </row>
@@ -22101,18 +22086,10 @@
       <c r="B21" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="177">
-        <v>147</v>
-      </c>
-      <c r="D21" s="177">
-        <v>7629</v>
-      </c>
-      <c r="E21" s="177">
-        <v>203</v>
-      </c>
-      <c r="F21" s="178">
-        <v>6154</v>
-      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -22122,18 +22099,10 @@
       <c r="B22" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="177">
-        <v>131</v>
-      </c>
-      <c r="D22" s="177">
-        <v>3061</v>
-      </c>
-      <c r="E22" s="177">
-        <v>220</v>
-      </c>
-      <c r="F22" s="178">
-        <v>20278</v>
-      </c>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="178"/>
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -22164,9 +22133,7 @@
       <c r="B24" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="177">
-        <v>6</v>
-      </c>
+      <c r="C24" s="177"/>
       <c r="D24" s="177">
         <v>0</v>
       </c>
@@ -22181,12 +22148,8 @@
       <c r="B25" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="177">
-        <v>1</v>
-      </c>
-      <c r="D25" s="177">
-        <v>7</v>
-      </c>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="177"/>
       <c r="F25" s="178"/>
       <c r="G25" s="90"/>
@@ -22200,11 +22163,11 @@
       </c>
       <c r="C26" s="174">
         <f>SUM(C24:C25)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="174">
         <f>SUM(D24:D25)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" s="174">
         <f>SUM(E24:E25)</f>
@@ -22221,9 +22184,7 @@
       <c r="B27" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="177">
-        <v>10</v>
-      </c>
+      <c r="C27" s="177"/>
       <c r="D27" s="182"/>
       <c r="E27" s="182"/>
       <c r="F27" s="183"/>
@@ -22288,9 +22249,7 @@
       <c r="B32" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="187" t="s">
-        <v>181</v>
-      </c>
+      <c r="C32" s="187"/>
       <c r="D32" s="185"/>
       <c r="E32" s="185"/>
       <c r="F32" s="186"/>
@@ -22301,7 +22260,7 @@
         <v>21170</v>
       </c>
       <c r="B33" s="181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="185"/>
       <c r="D33" s="185"/>
@@ -22314,7 +22273,7 @@
         <v>21171</v>
       </c>
       <c r="B34" s="181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="177"/>
       <c r="D34" s="185"/>
@@ -22327,7 +22286,7 @@
         <v>21172</v>
       </c>
       <c r="B35" s="181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="177"/>
       <c r="D35" s="185"/>
@@ -22340,7 +22299,7 @@
         <v>21173</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="177"/>
       <c r="D36" s="185"/>
@@ -22353,7 +22312,7 @@
         <v>21174</v>
       </c>
       <c r="B37" s="189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C37" s="190"/>
       <c r="D37" s="191"/>
@@ -22366,7 +22325,7 @@
         <v>21175</v>
       </c>
       <c r="B38" s="194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="195"/>
       <c r="D38" s="196"/>
@@ -22525,7 +22484,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="200"/>
     </row>
@@ -22535,7 +22494,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="201"/>
     </row>
@@ -22611,14 +22570,14 @@
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="210" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="657" t="s">
         <v>190</v>
-      </c>
-      <c r="B12" s="657" t="s">
-        <v>191</v>
       </c>
       <c r="C12" s="657"/>
       <c r="D12" s="212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="90"/>
     </row>
@@ -22869,7 +22828,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="220" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="661"/>
       <c r="C48" s="661"/>
@@ -22895,11 +22854,11 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" s="90"/>
       <c r="C51" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="99"/>
@@ -22910,7 +22869,7 @@
       </c>
       <c r="B52" s="90"/>
       <c r="C52" s="225" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -23034,7 +22993,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="229"/>
       <c r="E3" s="230"/>
@@ -23046,7 +23005,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="229"/>
       <c r="E4" s="230"/>
@@ -23135,20 +23094,20 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="232" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="657" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="657"/>
       <c r="D12" s="211" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="233" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="233" t="s">
+      <c r="F12" s="234" t="s">
         <v>201</v>
-      </c>
-      <c r="F12" s="234" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -23387,7 +23346,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="665" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="665"/>
       <c r="C39" s="665"/>
@@ -23417,13 +23376,13 @@
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="90"/>
       <c r="C42" s="104"/>
       <c r="D42" s="261"/>
       <c r="E42" s="650" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" s="650"/>
     </row>
@@ -23595,7 +23554,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="265"/>
       <c r="E3" s="266"/>
@@ -23608,7 +23567,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="265"/>
       <c r="E4" s="266"/>
@@ -23695,20 +23654,20 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="271" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="657" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="657"/>
       <c r="D11" s="211" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="E11" s="272" t="s">
-        <v>201</v>
-      </c>
       <c r="F11" s="273" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -23893,7 +23852,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="281" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" s="282"/>
       <c r="C32" s="283"/>
@@ -23921,11 +23880,11 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="90"/>
       <c r="D35" s="225" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -24044,7 +24003,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="289"/>
@@ -24056,7 +24015,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="291"/>
       <c r="E4" s="292"/>
@@ -24135,14 +24094,14 @@
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="271" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="657" t="s">
         <v>214</v>
-      </c>
-      <c r="B11" s="657" t="s">
-        <v>215</v>
       </c>
       <c r="C11" s="657"/>
       <c r="D11" s="273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -24327,7 +24286,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="220" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="669"/>
       <c r="C42" s="669"/>
@@ -24357,11 +24316,11 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" s="90"/>
       <c r="C46" s="650" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="650"/>
     </row>
@@ -24486,7 +24445,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
@@ -24497,7 +24456,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="300"/>
       <c r="E4" s="300"/>
@@ -24572,19 +24531,19 @@
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="303" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="304" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="305" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="D11" s="211" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="306" t="s">
         <v>222</v>
-      </c>
-      <c r="D11" s="211" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="306" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -24592,7 +24551,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="308" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="309">
         <v>54</v>
@@ -24610,7 +24569,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="313" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="314">
         <v>90</v>
@@ -24628,7 +24587,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="316" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="314"/>
       <c r="D14" s="73"/>
@@ -24642,7 +24601,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="313" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="314"/>
       <c r="D15" s="73"/>
@@ -24656,7 +24615,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="313" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="314"/>
       <c r="D16" s="73"/>
@@ -24670,7 +24629,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="313" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="314"/>
       <c r="D17" s="73"/>
@@ -24684,7 +24643,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="313" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="314"/>
       <c r="D18" s="73"/>
@@ -24698,7 +24657,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="318" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="319"/>
       <c r="D19" s="320"/>
@@ -24710,7 +24669,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="322"/>
       <c r="B20" s="323" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="324">
         <f>SUM(C12:C19)</f>
@@ -24747,7 +24706,7 @@
       </c>
       <c r="B23" s="90"/>
       <c r="D23" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="99"/>
     </row>
@@ -24834,7 +24793,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="289"/>
@@ -24847,7 +24806,7 @@
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="290" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="291"/>
       <c r="E4" s="292"/>
@@ -24945,12 +24904,12 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="104"/>
       <c r="E12" s="90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="104"/>
       <c r="G12" s="104"/>
@@ -24988,7 +24947,7 @@
     </row>
     <row r="16" spans="1:7" s="335" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="330" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="331"/>
       <c r="C16" s="332"/>
@@ -25002,31 +24961,31 @@
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="303" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="336" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="336" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="336" t="s">
+      <c r="D17" s="304" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="304" t="s">
+      <c r="E17" s="336" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="336" t="s">
+      <c r="F17" s="336" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="336" t="s">
+      <c r="G17" s="337" t="s">
         <v>242</v>
-      </c>
-      <c r="G17" s="337" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="235"/>
       <c r="B18" s="338" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="339">
         <v>44116</v>
@@ -25039,7 +24998,7 @@
       </c>
       <c r="F18" s="341"/>
       <c r="G18" s="342" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -25047,7 +25006,7 @@
       <c r="B19" s="343"/>
       <c r="C19" s="344"/>
       <c r="D19" s="345" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E19" s="346"/>
       <c r="F19" s="346"/>
